--- a/03 Modelagem_dos_dados_e_Analise_Exploratoria/05_Information_Value_2.xlsx
+++ b/03 Modelagem_dos_dados_e_Analise_Exploratoria/05_Information_Value_2.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wrpen\OneDrive\Área de Trabalho\Portifolio_Profissional\Turnover_Funcionarios\Projeto_Turnover_de_Funcionarios\02 Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wrpen\OneDrive\Área de Trabalho\Portifolio_Profissional\Turnover_Funcionarios\Projeto_Turnover_de_Funcionarios\03 Modelagem_dos_dados_e_Analise_Exploratoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AAD0DF-8865-4417-BE12-673566FFAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617AD694-8B79-47D9-90D4-2525BD3D1E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$116</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -312,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +329,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -630,10 +637,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M111"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,57 +664,57 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1116,57 +1126,57 @@
       <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1338,57 +1348,57 @@
       <c r="A21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1841,57 +1851,57 @@
       <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="M36" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2053,2338 +2063,2409 @@
         <v>2.7694858223250261E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="41" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-    </row>
-    <row r="43" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G47" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="K47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M43" s="6" t="s">
+      <c r="M47" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B48" s="1">
         <v>150</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C48" s="1">
         <v>769</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D48" s="1">
         <v>919</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E48" s="1">
         <v>0.62517006802721087</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F48" s="1">
         <v>150</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G48" s="1">
         <v>769</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H48" s="1">
         <v>0.63291139240506333</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I48" s="1">
         <v>0.62368207623682081</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J48" s="1">
         <v>0.1632208922742111</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K48" s="1">
         <v>1.0147981103191721</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L48" s="1">
         <v>1.468968661982485E-2</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M48" s="1">
         <v>1.355757622267653E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B49" s="1">
         <v>57</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C49" s="1">
         <v>323</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D49" s="1">
         <v>380</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E49" s="1">
         <v>0.25850340136054423</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F49" s="1">
         <v>57</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G49" s="1">
         <v>323</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H49" s="1">
         <v>0.24050632911392411</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I49" s="1">
         <v>0.2619626926196269</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J49" s="1">
         <v>0.15</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K49" s="1">
         <v>0.9180938198064037</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L49" s="1">
         <v>-8.5455693358893137E-2</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M49" s="1">
         <v>1.833568420340288E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B50" s="1">
         <v>30</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C50" s="1">
         <v>141</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D50" s="1">
         <v>171</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E50" s="1">
         <v>0.1163265306122449</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F50" s="1">
         <v>30</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G50" s="1">
         <v>141</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H50" s="1">
         <v>0.12658227848101269</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I50" s="1">
         <v>0.1143552311435523</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J50" s="1">
         <v>0.17543859649122809</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K50" s="1">
         <v>1.1069216267169411</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L50" s="1">
         <v>0.1015828533132003</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M50" s="1">
         <v>1.2420583561347921E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="1">
-        <v>237</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1233</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1470</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>237</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1233</v>
-      </c>
-      <c r="H47" s="1">
-        <v>1</v>
-      </c>
-      <c r="I47" s="1">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0.16122448979591841</v>
-      </c>
-      <c r="K47" s="1">
-        <v>1</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>3.2112025387018451E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
+        <v>237</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1233</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1470</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>237</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1233</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.16122448979591841</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>3.2112025387018451E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B55" s="1">
         <v>210</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C55" s="1">
         <v>1017</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D55" s="1">
         <v>1227</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E55" s="1">
         <v>0.83469387755102042</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F55" s="1">
         <v>210</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G55" s="1">
         <v>1017</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H55" s="1">
         <v>0.88607594936708856</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I55" s="1">
         <v>0.82481751824817517</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J55" s="1">
         <v>0.17114914425427871</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K55" s="1">
         <v>1.074269071356559</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L55" s="1">
         <v>7.1640496698121892E-2</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M55" s="1">
         <v>4.3885844323066411E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B56" s="1">
         <v>27</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C56" s="1">
         <v>216</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D56" s="1">
         <v>243</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E56" s="1">
         <v>0.1653061224489796</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F56" s="1">
         <v>27</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G56" s="1">
         <v>216</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H56" s="1">
         <v>0.1139240506329114</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I56" s="1">
         <v>0.1751824817518248</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J56" s="1">
         <v>0.1111111111111111</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K56" s="1">
         <v>0.65031645569620244</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L56" s="1">
         <v>-0.43029617965062289</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M56" s="1">
         <v>2.6359268881859289E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="1">
-        <v>237</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1233</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1470</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>237</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1233</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1</v>
-      </c>
-      <c r="I53" s="1">
-        <v>1</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0.16122448979591841</v>
-      </c>
-      <c r="M53" s="3">
-        <v>3.0747853314165931E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-    </row>
-    <row r="56" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="C57" s="1">
-        <v>153</v>
+        <v>1233</v>
       </c>
       <c r="D57" s="1">
-        <v>228</v>
+        <v>1470</v>
       </c>
       <c r="E57" s="1">
-        <v>0.1551020408163265</v>
+        <v>1</v>
       </c>
       <c r="F57" s="1">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="G57" s="1">
-        <v>153</v>
+        <v>1233</v>
       </c>
       <c r="H57" s="1">
-        <v>0.31645569620253172</v>
+        <v>1</v>
       </c>
       <c r="I57" s="1">
-        <v>0.1240875912408759</v>
+        <v>1</v>
       </c>
       <c r="J57" s="1">
-        <v>0.32894736842105271</v>
-      </c>
-      <c r="K57" s="1">
-        <v>2.5502606105733432</v>
-      </c>
-      <c r="L57" s="1">
-        <v>0.93619555417308808</v>
-      </c>
-      <c r="M57" s="1">
-        <v>0.1800941646298041</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="1">
-        <v>82</v>
-      </c>
-      <c r="C58" s="1">
-        <v>411</v>
-      </c>
-      <c r="D58" s="1">
-        <v>493</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0.33537414965986401</v>
-      </c>
-      <c r="F58" s="1">
-        <v>82</v>
-      </c>
-      <c r="G58" s="1">
-        <v>411</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0.34599156118143459</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0.16632860040567951</v>
-      </c>
-      <c r="K58" s="1">
-        <v>1.037974683544304</v>
-      </c>
-      <c r="L58" s="1">
-        <v>3.72713947972316E-2</v>
-      </c>
-      <c r="M58" s="1">
-        <v>4.7178980755989408E-4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" s="1">
-        <v>44</v>
-      </c>
-      <c r="C59" s="1">
-        <v>309</v>
-      </c>
-      <c r="D59" s="1">
-        <v>353</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0.24013605442176869</v>
-      </c>
-      <c r="F59" s="1">
-        <v>44</v>
-      </c>
-      <c r="G59" s="1">
-        <v>309</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0.1856540084388186</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0.25060827250608281</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0.1246458923512748</v>
-      </c>
-      <c r="K59" s="1">
-        <v>0.74081356765392647</v>
-      </c>
-      <c r="L59" s="1">
-        <v>-0.30000628095027121</v>
-      </c>
-      <c r="M59" s="1">
-        <v>1.9486687194681759E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="1">
-        <v>18</v>
-      </c>
-      <c r="C60" s="1">
-        <v>141</v>
-      </c>
-      <c r="D60" s="1">
-        <v>159</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0.1081632653061225</v>
-      </c>
-      <c r="F60" s="1">
-        <v>18</v>
-      </c>
-      <c r="G60" s="1">
-        <v>141</v>
-      </c>
-      <c r="H60" s="1">
-        <v>7.5949367088607597E-2</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0.1143552311435523</v>
-      </c>
-      <c r="J60" s="1">
-        <v>0.1132075471698113</v>
-      </c>
-      <c r="K60" s="1">
-        <v>0.66415297603016432</v>
-      </c>
-      <c r="L60" s="1">
-        <v>-0.40924277045279039</v>
-      </c>
-      <c r="M60" s="1">
-        <v>1.5717322207478811E-2</v>
+        <v>0.16122448979591841</v>
+      </c>
+      <c r="M57" s="3">
+        <v>3.0747853314165931E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B61" s="1">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C61" s="1">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="D61" s="1">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="E61" s="1">
-        <v>8.5034013605442174E-2</v>
+        <v>0.1551020408163265</v>
       </c>
       <c r="F61" s="1">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G61" s="1">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="H61" s="1">
-        <v>4.2194092827004218E-2</v>
+        <v>0.31645569620253172</v>
       </c>
       <c r="I61" s="1">
-        <v>9.3268450932684516E-2</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="J61" s="1">
-        <v>0.08</v>
+        <v>0.32894736842105271</v>
       </c>
       <c r="K61" s="1">
-        <v>0.45239405613648859</v>
+        <v>2.5502606105733432</v>
       </c>
       <c r="L61" s="1">
-        <v>-0.79320167333999148</v>
+        <v>0.93619555417308808</v>
       </c>
       <c r="M61" s="1">
-        <v>4.0512266314191567E-2</v>
+        <v>0.1800941646298041</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B62" s="1">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="C62" s="1">
-        <v>56</v>
+        <v>411</v>
       </c>
       <c r="D62" s="1">
-        <v>59</v>
+        <v>493</v>
       </c>
       <c r="E62" s="1">
-        <v>4.0136054421768708E-2</v>
+        <v>0.33537414965986401</v>
       </c>
       <c r="F62" s="1">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="G62" s="1">
-        <v>56</v>
+        <v>411</v>
       </c>
       <c r="H62" s="1">
-        <v>1.2658227848101271E-2</v>
+        <v>0.34599156118143459</v>
       </c>
       <c r="I62" s="1">
-        <v>4.5417680454176802E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J62" s="1">
-        <v>5.0847457627118647E-2</v>
+        <v>0.16632860040567951</v>
       </c>
       <c r="K62" s="1">
-        <v>0.27870705244122967</v>
+        <v>1.037974683544304</v>
       </c>
       <c r="L62" s="1">
-        <v>-1.2775940400378261</v>
+        <v>3.72713947972316E-2</v>
       </c>
       <c r="M62" s="1">
-        <v>4.1853281404423737E-2</v>
+        <v>4.7178980755989408E-4</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B63" s="1">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C63" s="1">
-        <v>34</v>
+        <v>309</v>
       </c>
       <c r="D63" s="1">
-        <v>37</v>
+        <v>353</v>
       </c>
       <c r="E63" s="1">
-        <v>2.517006802721088E-2</v>
+        <v>0.24013605442176869</v>
       </c>
       <c r="F63" s="1">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G63" s="1">
-        <v>34</v>
+        <v>309</v>
       </c>
       <c r="H63" s="1">
-        <v>1.2658227848101271E-2</v>
+        <v>0.1856540084388186</v>
       </c>
       <c r="I63" s="1">
-        <v>2.7575020275750199E-2</v>
+        <v>0.25060827250608281</v>
       </c>
       <c r="J63" s="1">
-        <v>8.1081081081081086E-2</v>
+        <v>0.1246458923512748</v>
       </c>
       <c r="K63" s="1">
-        <v>0.45904690990320179</v>
+        <v>0.74081356765392647</v>
       </c>
       <c r="L63" s="1">
-        <v>-0.77860287391883853</v>
+        <v>-0.30000628095027121</v>
       </c>
       <c r="M63" s="1">
-        <v>1.1614257453818231E-2</v>
+        <v>1.9486687194681759E-2</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B64" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C64" s="1">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="D64" s="1">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="E64" s="1">
-        <v>1.08843537414966E-2</v>
+        <v>0.1081632653061225</v>
       </c>
       <c r="F64" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G64" s="1">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="H64" s="1">
-        <v>8.4388185654008432E-3</v>
+        <v>7.5949367088607597E-2</v>
       </c>
       <c r="I64" s="1">
-        <v>1.1354420113544201E-2</v>
+        <v>0.1143552311435523</v>
       </c>
       <c r="J64" s="1">
-        <v>0.125</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="K64" s="1">
-        <v>0.74321880650994576</v>
+        <v>0.66415297603016432</v>
       </c>
       <c r="L64" s="1">
-        <v>-0.29676478702610021</v>
+        <v>-0.40924277045279039</v>
       </c>
       <c r="M64" s="1">
-        <v>8.6524787248773135E-4</v>
+        <v>1.5717322207478811E-2</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="1">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1">
+        <v>115</v>
+      </c>
+      <c r="D65" s="1">
+        <v>125</v>
+      </c>
+      <c r="E65" s="1">
+        <v>8.5034013605442174E-2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>10</v>
+      </c>
+      <c r="G65" s="1">
+        <v>115</v>
+      </c>
+      <c r="H65" s="1">
+        <v>4.2194092827004218E-2</v>
+      </c>
+      <c r="I65" s="1">
+        <v>9.3268450932684516E-2</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0.45239405613648859</v>
+      </c>
+      <c r="L65" s="1">
+        <v>-0.79320167333999148</v>
+      </c>
+      <c r="M65" s="1">
+        <v>4.0512266314191567E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="1">
         <v>3</v>
       </c>
-      <c r="B65" s="1">
-        <v>237</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1233</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1470</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1">
-        <v>237</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1233</v>
-      </c>
-      <c r="H65" s="1">
-        <v>1</v>
-      </c>
-      <c r="I65" s="1">
-        <v>1</v>
-      </c>
-      <c r="J65" s="1">
-        <v>0.16122448979591841</v>
-      </c>
-      <c r="M65" s="3">
-        <v>0.31061501688444582</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-    </row>
-    <row r="68" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="6" t="s">
+      <c r="C66" s="1">
+        <v>56</v>
+      </c>
+      <c r="D66" s="1">
+        <v>59</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4.0136054421768708E-2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1">
+        <v>56</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1.2658227848101271E-2</v>
+      </c>
+      <c r="I66" s="1">
+        <v>4.5417680454176802E-2</v>
+      </c>
+      <c r="J66" s="1">
+        <v>5.0847457627118647E-2</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0.27870705244122967</v>
+      </c>
+      <c r="L66" s="1">
+        <v>-1.2775940400378261</v>
+      </c>
+      <c r="M66" s="1">
+        <v>4.1853281404423737E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>34</v>
+      </c>
+      <c r="D67" s="1">
+        <v>37</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2.517006802721088E-2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1">
+        <v>34</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1.2658227848101271E-2</v>
+      </c>
+      <c r="I67" s="1">
+        <v>2.7575020275750199E-2</v>
+      </c>
+      <c r="J67" s="1">
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0.45904690990320179</v>
+      </c>
+      <c r="L67" s="1">
+        <v>-0.77860287391883853</v>
+      </c>
+      <c r="M67" s="1">
+        <v>1.1614257453818231E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="1">
         <v>2</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M68" s="6" t="s">
-        <v>12</v>
+      <c r="C68" s="1">
+        <v>14</v>
+      </c>
+      <c r="D68" s="1">
+        <v>16</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1.08843537414966E-2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1">
+        <v>14</v>
+      </c>
+      <c r="H68" s="1">
+        <v>8.4388185654008432E-3</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1.1354420113544201E-2</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0.74321880650994576</v>
+      </c>
+      <c r="L68" s="1">
+        <v>-0.29676478702610021</v>
+      </c>
+      <c r="M68" s="1">
+        <v>8.6524787248773135E-4</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1">
+        <v>237</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1233</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1470</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>237</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1233</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.16122448979591841</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0.31061501688444582</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B73" s="1">
         <v>24</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C73" s="1">
         <v>101</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D73" s="1">
         <v>125</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E73" s="1">
         <v>8.5034013605442174E-2</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F73" s="1">
         <v>24</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G73" s="1">
         <v>101</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H73" s="1">
         <v>0.1012658227848101</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I73" s="1">
         <v>8.191403081914031E-2</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J73" s="1">
         <v>0.192</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K73" s="1">
         <v>1.2362451435016919</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L73" s="1">
         <v>0.21207867553589921</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M73" s="1">
         <v>4.1041024093255102E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B74" s="1">
         <v>167</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C74" s="1">
         <v>871</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D74" s="1">
         <v>1038</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E74" s="1">
         <v>0.70612244897959187</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F74" s="1">
         <v>167</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G74" s="1">
         <v>871</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H74" s="1">
         <v>0.70464135021097052</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I74" s="1">
         <v>0.70640713706407132</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J74" s="1">
         <v>0.16088631984585741</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K74" s="1">
         <v>0.99750032699210878</v>
       </c>
-      <c r="L70" s="1">
+      <c r="L74" s="1">
         <v>-2.5028024065343892E-3</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M74" s="1">
         <v>4.4194155853674773E-6</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B75" s="1">
         <v>46</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C75" s="1">
         <v>261</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D75" s="1">
         <v>307</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E75" s="1">
         <v>0.208843537414966</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F75" s="1">
         <v>46</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G75" s="1">
         <v>261</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H75" s="1">
         <v>0.1940928270042194</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I75" s="1">
         <v>0.21167883211678831</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J75" s="1">
         <v>0.14983713355048861</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K75" s="1">
         <v>0.91692128619234681</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L75" s="1">
         <v>-8.673364880438536E-2</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M75" s="1">
         <v>1.525298391305678E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="1">
-        <v>237</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1233</v>
-      </c>
-      <c r="D72" s="1">
-        <v>1470</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1">
-        <v>237</v>
-      </c>
-      <c r="G72" s="1">
-        <v>1233</v>
-      </c>
-      <c r="H72" s="1">
-        <v>1</v>
-      </c>
-      <c r="I72" s="1">
-        <v>1</v>
-      </c>
-      <c r="J72" s="1">
-        <v>0.16122448979591841</v>
-      </c>
-      <c r="M72" s="3">
-        <v>5.6338202162165554E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-    </row>
-    <row r="75" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J75" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M75" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B76" s="1">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="C76" s="1">
-        <v>348</v>
+        <v>1233</v>
       </c>
       <c r="D76" s="1">
-        <v>470</v>
+        <v>1470</v>
       </c>
       <c r="E76" s="1">
-        <v>0.31972789115646261</v>
+        <v>1</v>
       </c>
       <c r="F76" s="1">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="G76" s="1">
-        <v>348</v>
+        <v>1233</v>
       </c>
       <c r="H76" s="1">
-        <v>0.51476793248945152</v>
+        <v>1</v>
       </c>
       <c r="I76" s="1">
-        <v>0.28223844282238442</v>
+        <v>1</v>
       </c>
       <c r="J76" s="1">
-        <v>0.25957446808510642</v>
-      </c>
-      <c r="K76" s="1">
-        <v>1.823876036665212</v>
-      </c>
-      <c r="L76" s="1">
-        <v>0.6009639269879955</v>
-      </c>
-      <c r="M76" s="1">
-        <v>0.13974183525083519</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77" s="1">
-        <v>60</v>
-      </c>
-      <c r="C77" s="1">
-        <v>412</v>
-      </c>
-      <c r="D77" s="1">
-        <v>472</v>
-      </c>
-      <c r="E77" s="1">
-        <v>0.32108843537414972</v>
-      </c>
-      <c r="F77" s="1">
-        <v>60</v>
-      </c>
-      <c r="G77" s="1">
-        <v>412</v>
-      </c>
-      <c r="H77" s="1">
-        <v>0.25316455696202528</v>
-      </c>
-      <c r="I77" s="1">
-        <v>0.33414436334144371</v>
-      </c>
-      <c r="J77" s="1">
-        <v>0.1271186440677966</v>
-      </c>
-      <c r="K77" s="1">
-        <v>0.75765023964606126</v>
-      </c>
-      <c r="L77" s="1">
-        <v>-0.27753342509821249</v>
-      </c>
-      <c r="M77" s="1">
-        <v>2.2474603028270049E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" s="1">
-        <v>37</v>
-      </c>
-      <c r="C78" s="1">
-        <v>277</v>
-      </c>
-      <c r="D78" s="1">
-        <v>314</v>
-      </c>
-      <c r="E78" s="1">
-        <v>0.21360544217687069</v>
-      </c>
-      <c r="F78" s="1">
-        <v>37</v>
-      </c>
-      <c r="G78" s="1">
-        <v>277</v>
-      </c>
-      <c r="H78" s="1">
-        <v>0.15611814345991559</v>
-      </c>
-      <c r="I78" s="1">
-        <v>0.22465531224655311</v>
-      </c>
-      <c r="J78" s="1">
-        <v>0.1178343949044586</v>
-      </c>
-      <c r="K78" s="1">
-        <v>0.69492299958872183</v>
-      </c>
-      <c r="L78" s="1">
-        <v>-0.36395423151390088</v>
-      </c>
-      <c r="M78" s="1">
-        <v>2.4944392595879179E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="1">
+        <v>0.16122448979591841</v>
+      </c>
+      <c r="M76" s="3">
+        <v>5.6338202162165554E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+    </row>
+    <row r="79" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="1">
-        <v>71</v>
-      </c>
-      <c r="D79" s="1">
-        <v>76</v>
-      </c>
-      <c r="E79" s="1">
-        <v>5.1700680272108841E-2</v>
-      </c>
-      <c r="F79" s="1">
-        <v>5</v>
-      </c>
-      <c r="G79" s="1">
-        <v>71</v>
-      </c>
-      <c r="H79" s="1">
-        <v>2.1097046413502109E-2</v>
-      </c>
-      <c r="I79" s="1">
-        <v>5.7583130575831303E-2</v>
-      </c>
-      <c r="J79" s="1">
-        <v>6.5789473684210523E-2</v>
-      </c>
-      <c r="K79" s="1">
-        <v>0.36637546799786058</v>
-      </c>
-      <c r="L79" s="1">
-        <v>-1.004096602578002</v>
-      </c>
-      <c r="M79" s="1">
-        <v>3.6635553148769789E-2</v>
+      <c r="G79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B80" s="1">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="C80" s="1">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="D80" s="1">
-        <v>45</v>
+        <v>470</v>
       </c>
       <c r="E80" s="1">
-        <v>3.0612244897959179E-2</v>
+        <v>0.31972789115646261</v>
       </c>
       <c r="F80" s="1">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="G80" s="1">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="H80" s="1">
-        <v>1.687763713080169E-2</v>
+        <v>0.51476793248945152</v>
       </c>
       <c r="I80" s="1">
-        <v>3.3252230332522302E-2</v>
+        <v>0.28223844282238442</v>
       </c>
       <c r="J80" s="1">
-        <v>8.8888888888888892E-2</v>
+        <v>0.25957446808510642</v>
       </c>
       <c r="K80" s="1">
-        <v>0.50756406298240198</v>
+        <v>1.823876036665212</v>
       </c>
       <c r="L80" s="1">
-        <v>-0.67813234355520402</v>
+        <v>0.6009639269879955</v>
       </c>
       <c r="M80" s="1">
-        <v>1.110414126264591E-2</v>
+        <v>0.13974183525083519</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B81" s="1">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C81" s="1">
-        <v>54</v>
+        <v>412</v>
       </c>
       <c r="D81" s="1">
-        <v>58</v>
+        <v>472</v>
       </c>
       <c r="E81" s="1">
-        <v>3.9455782312925167E-2</v>
+        <v>0.32108843537414972</v>
       </c>
       <c r="F81" s="1">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="G81" s="1">
-        <v>54</v>
+        <v>412</v>
       </c>
       <c r="H81" s="1">
-        <v>1.687763713080169E-2</v>
+        <v>0.25316455696202528</v>
       </c>
       <c r="I81" s="1">
-        <v>4.3795620437956213E-2</v>
+        <v>0.33414436334144371</v>
       </c>
       <c r="J81" s="1">
-        <v>6.8965517241379309E-2</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="K81" s="1">
-        <v>0.38537271448663851</v>
+        <v>0.75765023964606126</v>
       </c>
       <c r="L81" s="1">
-        <v>-0.9535443234151707</v>
+        <v>-0.27753342509821249</v>
       </c>
       <c r="M81" s="1">
-        <v>2.5667490180321519E-2</v>
+        <v>2.2474603028270049E-2</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B82" s="1">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C82" s="1">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c r="D82" s="1">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="E82" s="1">
-        <v>1.08843537414966E-2</v>
+        <v>0.21360544217687069</v>
       </c>
       <c r="F82" s="1">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="G82" s="1">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c r="H82" s="1">
-        <v>4.2194092827004216E-3</v>
+        <v>0.15611814345991559</v>
       </c>
       <c r="I82" s="1">
-        <v>1.21654501216545E-2</v>
+        <v>0.22465531224655311</v>
       </c>
       <c r="J82" s="1">
-        <v>6.25E-2</v>
+        <v>0.1178343949044586</v>
       </c>
       <c r="K82" s="1">
-        <v>0.34683544303797459</v>
+        <v>0.69492299958872183</v>
       </c>
       <c r="L82" s="1">
-        <v>-1.0589048390729969</v>
+        <v>-0.36395423151390088</v>
       </c>
       <c r="M82" s="1">
-        <v>8.4141010958401347E-3</v>
+        <v>2.4944392595879179E-2</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C83" s="1">
+        <v>71</v>
+      </c>
+      <c r="D83" s="1">
+        <v>76</v>
+      </c>
+      <c r="E83" s="1">
+        <v>5.1700680272108841E-2</v>
+      </c>
+      <c r="F83" s="1">
         <v>5</v>
       </c>
-      <c r="D83" s="1">
-        <v>6</v>
-      </c>
-      <c r="E83" s="1">
-        <v>4.0816326530612249E-3</v>
-      </c>
-      <c r="F83" s="1">
-        <v>1</v>
-      </c>
       <c r="G83" s="1">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="H83" s="1">
-        <v>4.2194092827004216E-3</v>
+        <v>2.1097046413502109E-2</v>
       </c>
       <c r="I83" s="1">
-        <v>4.0551500405515001E-3</v>
+        <v>5.7583130575831303E-2</v>
       </c>
       <c r="J83" s="1">
-        <v>0.16666666666666671</v>
+        <v>6.5789473684210523E-2</v>
       </c>
       <c r="K83" s="1">
-        <v>1.040506329113924</v>
+        <v>0.36637546799786058</v>
       </c>
       <c r="L83" s="1">
-        <v>3.9707449595112729E-2</v>
+        <v>-1.004096602578002</v>
       </c>
       <c r="M83" s="1">
-        <v>6.5223155781597171E-6</v>
+        <v>3.6635553148769789E-2</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B84" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C84" s="1">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D84" s="1">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E84" s="1">
-        <v>6.1224489795918364E-3</v>
+        <v>3.0612244897959179E-2</v>
       </c>
       <c r="F84" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G84" s="1">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H84" s="1">
-        <v>8.4388185654008432E-3</v>
+        <v>1.687763713080169E-2</v>
       </c>
       <c r="I84" s="1">
-        <v>5.6772100567721003E-3</v>
+        <v>3.3252230332522302E-2</v>
       </c>
       <c r="J84" s="1">
-        <v>0.22222222222222221</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="K84" s="1">
-        <v>1.486437613019892</v>
+        <v>0.50756406298240198</v>
       </c>
       <c r="L84" s="1">
-        <v>0.39638239353384508</v>
+        <v>-0.67813234355520402</v>
       </c>
       <c r="M84" s="1">
-        <v>1.0946529906536941E-3</v>
+        <v>1.110414126264591E-2</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B85" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C85" s="1">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D85" s="1">
+        <v>58</v>
+      </c>
+      <c r="E85" s="1">
+        <v>3.9455782312925167E-2</v>
+      </c>
+      <c r="F85" s="1">
         <v>4</v>
       </c>
-      <c r="E85" s="1">
-        <v>2.721088435374149E-3</v>
-      </c>
-      <c r="F85" s="1">
-        <v>1</v>
-      </c>
       <c r="G85" s="1">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="H85" s="1">
-        <v>4.2194092827004216E-3</v>
+        <v>1.687763713080169E-2</v>
       </c>
       <c r="I85" s="1">
-        <v>2.4330900243308999E-3</v>
+        <v>4.3795620437956213E-2</v>
       </c>
       <c r="J85" s="1">
-        <v>0.25</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="K85" s="1">
-        <v>1.7341772151898729</v>
+        <v>0.38537271448663851</v>
       </c>
       <c r="L85" s="1">
-        <v>0.55053307336110335</v>
+        <v>-0.9535443234151707</v>
       </c>
       <c r="M85" s="1">
-        <v>9.8342783131429934E-4</v>
+        <v>2.5667490180321519E-2</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>15</v>
+      </c>
+      <c r="D86" s="1">
+        <v>16</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1.08843537414966E-2</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>15</v>
+      </c>
+      <c r="H86" s="1">
+        <v>4.2194092827004216E-3</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1.21654501216545E-2</v>
+      </c>
+      <c r="J86" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0.34683544303797459</v>
+      </c>
+      <c r="L86" s="1">
+        <v>-1.0589048390729969</v>
+      </c>
+      <c r="M86" s="1">
+        <v>8.4141010958401347E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>5</v>
+      </c>
+      <c r="D87" s="1">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1">
+        <v>4.0816326530612249E-3</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>5</v>
+      </c>
+      <c r="H87" s="1">
+        <v>4.2194092827004216E-3</v>
+      </c>
+      <c r="I87" s="1">
+        <v>4.0551500405515001E-3</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="K87" s="1">
+        <v>1.040506329113924</v>
+      </c>
+      <c r="L87" s="1">
+        <v>3.9707449595112729E-2</v>
+      </c>
+      <c r="M87" s="1">
+        <v>6.5223155781597171E-6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2</v>
+      </c>
+      <c r="C88" s="1">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1">
+        <v>9</v>
+      </c>
+      <c r="E88" s="1">
+        <v>6.1224489795918364E-3</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2</v>
+      </c>
+      <c r="G88" s="1">
+        <v>7</v>
+      </c>
+      <c r="H88" s="1">
+        <v>8.4388185654008432E-3</v>
+      </c>
+      <c r="I88" s="1">
+        <v>5.6772100567721003E-3</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="K88" s="1">
+        <v>1.486437613019892</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0.39638239353384508</v>
+      </c>
+      <c r="M88" s="1">
+        <v>1.0946529906536941E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
         <v>3</v>
       </c>
-      <c r="B86" s="1">
-        <v>237</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1233</v>
-      </c>
-      <c r="D86" s="1">
-        <v>1470</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1</v>
-      </c>
-      <c r="F86" s="1">
-        <v>237</v>
-      </c>
-      <c r="G86" s="1">
-        <v>1233</v>
-      </c>
-      <c r="H86" s="1">
-        <v>1</v>
-      </c>
-      <c r="I86" s="1">
-        <v>1</v>
-      </c>
-      <c r="J86" s="1">
-        <v>0.16122448979591841</v>
-      </c>
-      <c r="K86" s="1">
-        <v>1</v>
-      </c>
-      <c r="L86" s="1">
-        <v>0</v>
-      </c>
-      <c r="M86" s="3">
-        <v>0.27106671970010793</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-    </row>
-    <row r="89" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="1">
+        <v>4</v>
+      </c>
+      <c r="E89" s="1">
+        <v>2.721088435374149E-3</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
         <v>3</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M89" s="6" t="s">
-        <v>12</v>
+      <c r="H89" s="1">
+        <v>4.2194092827004216E-3</v>
+      </c>
+      <c r="I89" s="1">
+        <v>2.4330900243308999E-3</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K89" s="1">
+        <v>1.7341772151898729</v>
+      </c>
+      <c r="L89" s="1">
+        <v>0.55053307336110335</v>
+      </c>
+      <c r="M89" s="1">
+        <v>9.8342783131429934E-4</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B90" s="1">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="C90" s="1">
-        <v>729</v>
+        <v>1233</v>
       </c>
       <c r="D90" s="1">
-        <v>912</v>
+        <v>1470</v>
       </c>
       <c r="E90" s="1">
-        <v>0.62040816326530612</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="G90" s="1">
-        <v>729</v>
+        <v>1233</v>
       </c>
       <c r="H90" s="1">
-        <v>0.77215189873417722</v>
+        <v>1</v>
       </c>
       <c r="I90" s="1">
-        <v>0.59124087591240881</v>
+        <v>1</v>
       </c>
       <c r="J90" s="1">
-        <v>0.20065789473684209</v>
+        <v>0.16122448979591841</v>
       </c>
       <c r="K90" s="1">
-        <v>1.305985310204719</v>
+        <v>1</v>
       </c>
       <c r="L90" s="1">
-        <v>0.26695778286197591</v>
-      </c>
-      <c r="M90" s="1">
-        <v>4.8295605547791609E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>44</v>
-      </c>
-      <c r="B91" s="1">
-        <v>47</v>
-      </c>
-      <c r="C91" s="1">
-        <v>404</v>
-      </c>
-      <c r="D91" s="1">
-        <v>451</v>
-      </c>
-      <c r="E91" s="1">
-        <v>0.30680272108843543</v>
-      </c>
-      <c r="F91" s="1">
-        <v>47</v>
-      </c>
-      <c r="G91" s="1">
-        <v>404</v>
-      </c>
-      <c r="H91" s="1">
-        <v>0.1983122362869198</v>
-      </c>
-      <c r="I91" s="1">
-        <v>0.32765612327656118</v>
-      </c>
-      <c r="J91" s="1">
-        <v>0.1042128603104213</v>
-      </c>
-      <c r="K91" s="1">
-        <v>0.60524501817270326</v>
-      </c>
-      <c r="L91" s="1">
-        <v>-0.50212191422187846</v>
-      </c>
-      <c r="M91" s="1">
-        <v>6.4946400128137072E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>45</v>
-      </c>
-      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="M90" s="3">
+        <v>0.27106671970010793</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+    </row>
+    <row r="93" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C92" s="1">
-        <v>81</v>
-      </c>
-      <c r="D92" s="1">
-        <v>86</v>
-      </c>
-      <c r="E92" s="1">
-        <v>5.8503401360544223E-2</v>
-      </c>
-      <c r="F92" s="1">
-        <v>5</v>
-      </c>
-      <c r="G92" s="1">
-        <v>81</v>
-      </c>
-      <c r="H92" s="1">
-        <v>2.1097046413502109E-2</v>
-      </c>
-      <c r="I92" s="1">
-        <v>6.569343065693431E-2</v>
-      </c>
-      <c r="J92" s="1">
-        <v>5.8139534883720929E-2</v>
-      </c>
-      <c r="K92" s="1">
-        <v>0.32114392873886538</v>
-      </c>
-      <c r="L92" s="1">
-        <v>-1.135865880209125</v>
-      </c>
-      <c r="M92" s="1">
-        <v>5.065551124281048E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>46</v>
-      </c>
-      <c r="B93" s="1">
-        <v>2</v>
-      </c>
-      <c r="C93" s="1">
-        <v>19</v>
-      </c>
-      <c r="D93" s="1">
-        <v>21</v>
-      </c>
-      <c r="E93" s="1">
-        <v>1.428571428571429E-2</v>
-      </c>
-      <c r="F93" s="1">
-        <v>2</v>
-      </c>
-      <c r="G93" s="1">
-        <v>19</v>
-      </c>
-      <c r="H93" s="1">
-        <v>8.4388185654008432E-3</v>
-      </c>
-      <c r="I93" s="1">
-        <v>1.5409570154095701E-2</v>
-      </c>
-      <c r="J93" s="1">
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="K93" s="1">
-        <v>0.5476349100599599</v>
-      </c>
-      <c r="L93" s="1">
-        <v>-0.60214643657728228</v>
-      </c>
-      <c r="M93" s="1">
-        <v>4.1974132293980384E-3</v>
+      <c r="G93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B94" s="1">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="C94" s="1">
-        <v>1233</v>
+        <v>729</v>
       </c>
       <c r="D94" s="1">
-        <v>1470</v>
+        <v>912</v>
       </c>
       <c r="E94" s="1">
-        <v>1</v>
+        <v>0.62040816326530612</v>
       </c>
       <c r="F94" s="1">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="G94" s="1">
-        <v>1233</v>
+        <v>729</v>
       </c>
       <c r="H94" s="1">
-        <v>1</v>
+        <v>0.77215189873417722</v>
       </c>
       <c r="I94" s="1">
-        <v>1</v>
+        <v>0.59124087591240881</v>
       </c>
       <c r="J94" s="1">
-        <v>0.16122448979591841</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0.1680949301481372</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-    </row>
-    <row r="97" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="6" t="s">
+        <v>0.20065789473684209</v>
+      </c>
+      <c r="K94" s="1">
+        <v>1.305985310204719</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0.26695778286197591</v>
+      </c>
+      <c r="M94" s="1">
+        <v>4.8295605547791609E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="1">
+        <v>47</v>
+      </c>
+      <c r="C95" s="1">
+        <v>404</v>
+      </c>
+      <c r="D95" s="1">
+        <v>451</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0.30680272108843543</v>
+      </c>
+      <c r="F95" s="1">
+        <v>47</v>
+      </c>
+      <c r="G95" s="1">
+        <v>404</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.1983122362869198</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.32765612327656118</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0.1042128603104213</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0.60524501817270326</v>
+      </c>
+      <c r="L95" s="1">
+        <v>-0.50212191422187846</v>
+      </c>
+      <c r="M95" s="1">
+        <v>6.4946400128137072E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96" s="1">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1">
+        <v>81</v>
+      </c>
+      <c r="D96" s="1">
+        <v>86</v>
+      </c>
+      <c r="E96" s="1">
+        <v>5.8503401360544223E-2</v>
+      </c>
+      <c r="F96" s="1">
+        <v>5</v>
+      </c>
+      <c r="G96" s="1">
+        <v>81</v>
+      </c>
+      <c r="H96" s="1">
+        <v>2.1097046413502109E-2</v>
+      </c>
+      <c r="I96" s="1">
+        <v>6.569343065693431E-2</v>
+      </c>
+      <c r="J96" s="1">
+        <v>5.8139534883720929E-2</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0.32114392873886538</v>
+      </c>
+      <c r="L96" s="1">
+        <v>-1.135865880209125</v>
+      </c>
+      <c r="M96" s="1">
+        <v>5.065551124281048E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" s="1">
         <v>2</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J97" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M97" s="6" t="s">
-        <v>12</v>
+      <c r="C97" s="1">
+        <v>19</v>
+      </c>
+      <c r="D97" s="1">
+        <v>21</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1.428571428571429E-2</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2</v>
+      </c>
+      <c r="G97" s="1">
+        <v>19</v>
+      </c>
+      <c r="H97" s="1">
+        <v>8.4388185654008432E-3</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1.5409570154095701E-2</v>
+      </c>
+      <c r="J97" s="1">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0.5476349100599599</v>
+      </c>
+      <c r="L97" s="1">
+        <v>-0.60214643657728228</v>
+      </c>
+      <c r="M97" s="1">
+        <v>4.1974132293980384E-3</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B98" s="1">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="C98" s="1">
-        <v>911</v>
+        <v>1233</v>
       </c>
       <c r="D98" s="1">
-        <v>1097</v>
+        <v>1470</v>
       </c>
       <c r="E98" s="1">
-        <v>0.74625850340136057</v>
+        <v>1</v>
       </c>
       <c r="F98" s="1">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="G98" s="1">
-        <v>911</v>
+        <v>1233</v>
       </c>
       <c r="H98" s="1">
-        <v>0.78481012658227844</v>
+        <v>1</v>
       </c>
       <c r="I98" s="1">
-        <v>0.73884833738848332</v>
+        <v>1</v>
       </c>
       <c r="J98" s="1">
-        <v>0.16955332725615321</v>
-      </c>
-      <c r="K98" s="1">
-        <v>1.0622073392710749</v>
-      </c>
-      <c r="L98" s="1">
-        <v>6.034913848245612E-2</v>
-      </c>
-      <c r="M98" s="1">
-        <v>2.7737543809577968E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>36</v>
-      </c>
-      <c r="B99" s="1">
-        <v>16</v>
-      </c>
-      <c r="C99" s="1">
-        <v>142</v>
-      </c>
-      <c r="D99" s="1">
-        <v>158</v>
-      </c>
-      <c r="E99" s="1">
-        <v>0.1074829931972789</v>
-      </c>
-      <c r="F99" s="1">
-        <v>16</v>
-      </c>
-      <c r="G99" s="1">
-        <v>142</v>
-      </c>
-      <c r="H99" s="1">
-        <v>6.7510548523206745E-2</v>
-      </c>
-      <c r="I99" s="1">
-        <v>0.11516626115166261</v>
-      </c>
-      <c r="J99" s="1">
-        <v>0.1012658227848101</v>
-      </c>
-      <c r="K99" s="1">
-        <v>0.58620074879657691</v>
-      </c>
-      <c r="L99" s="1">
-        <v>-0.53409297333226646</v>
-      </c>
-      <c r="M99" s="1">
-        <v>2.5452581254000031E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>62</v>
-      </c>
-      <c r="B100" s="1">
-        <v>22</v>
-      </c>
-      <c r="C100" s="1">
-        <v>104</v>
-      </c>
-      <c r="D100" s="1">
-        <v>126</v>
-      </c>
-      <c r="E100" s="1">
-        <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="F100" s="1">
-        <v>22</v>
-      </c>
-      <c r="G100" s="1">
-        <v>104</v>
-      </c>
-      <c r="H100" s="1">
-        <v>9.2827004219409287E-2</v>
-      </c>
-      <c r="I100" s="1">
-        <v>8.4347120843471207E-2</v>
-      </c>
-      <c r="J100" s="1">
-        <v>0.17460317460317459</v>
-      </c>
-      <c r="K100" s="1">
-        <v>1.1005355404089581</v>
-      </c>
-      <c r="L100" s="1">
-        <v>9.5796916246156452E-2</v>
-      </c>
-      <c r="M100" s="1">
-        <v>8.1234667754191464E-4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>63</v>
-      </c>
-      <c r="B101" s="1">
+        <v>0.16122448979591841</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0.1680949301481372</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+    </row>
+    <row r="101" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="1">
-        <v>40</v>
-      </c>
-      <c r="D101" s="1">
-        <v>47</v>
-      </c>
-      <c r="E101" s="1">
-        <v>3.1972789115646258E-2</v>
-      </c>
-      <c r="F101" s="1">
-        <v>7</v>
-      </c>
-      <c r="G101" s="1">
-        <v>40</v>
-      </c>
-      <c r="H101" s="1">
-        <v>2.953586497890295E-2</v>
-      </c>
-      <c r="I101" s="1">
-        <v>3.2441200324412001E-2</v>
-      </c>
-      <c r="J101" s="1">
-        <v>0.14893617021276601</v>
-      </c>
-      <c r="K101" s="1">
-        <v>0.91044303797468362</v>
-      </c>
-      <c r="L101" s="1">
-        <v>-9.3823943029409801E-2</v>
-      </c>
-      <c r="M101" s="1">
-        <v>2.7259001793837151E-4</v>
+      <c r="I101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M101" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B102" s="1">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="C102" s="1">
-        <v>36</v>
+        <v>911</v>
       </c>
       <c r="D102" s="1">
-        <v>42</v>
+        <v>1097</v>
       </c>
       <c r="E102" s="1">
-        <v>2.8571428571428571E-2</v>
+        <v>0.74625850340136057</v>
       </c>
       <c r="F102" s="1">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="G102" s="1">
-        <v>36</v>
+        <v>911</v>
       </c>
       <c r="H102" s="1">
-        <v>2.5316455696202531E-2</v>
+        <v>0.78481012658227844</v>
       </c>
       <c r="I102" s="1">
-        <v>2.9197080291970798E-2</v>
+        <v>0.73884833738848332</v>
       </c>
       <c r="J102" s="1">
-        <v>0.14285714285714279</v>
+        <v>0.16955332725615321</v>
       </c>
       <c r="K102" s="1">
-        <v>0.86708860759493678</v>
+        <v>1.0622073392710749</v>
       </c>
       <c r="L102" s="1">
-        <v>-0.14261410719884179</v>
+        <v>6.034913848245612E-2</v>
       </c>
       <c r="M102" s="1">
-        <v>5.5343181209935842E-4</v>
+        <v>2.7737543809577968E-3</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" s="1">
+        <v>16</v>
+      </c>
+      <c r="C103" s="1">
+        <v>142</v>
+      </c>
+      <c r="D103" s="1">
+        <v>158</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0.1074829931972789</v>
+      </c>
+      <c r="F103" s="1">
+        <v>16</v>
+      </c>
+      <c r="G103" s="1">
+        <v>142</v>
+      </c>
+      <c r="H103" s="1">
+        <v>6.7510548523206745E-2</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0.11516626115166261</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0.1012658227848101</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0.58620074879657691</v>
+      </c>
+      <c r="L103" s="1">
+        <v>-0.53409297333226646</v>
+      </c>
+      <c r="M103" s="1">
+        <v>2.5452581254000031E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" s="1">
+        <v>22</v>
+      </c>
+      <c r="C104" s="1">
+        <v>104</v>
+      </c>
+      <c r="D104" s="1">
+        <v>126</v>
+      </c>
+      <c r="E104" s="1">
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="F104" s="1">
+        <v>22</v>
+      </c>
+      <c r="G104" s="1">
+        <v>104</v>
+      </c>
+      <c r="H104" s="1">
+        <v>9.2827004219409287E-2</v>
+      </c>
+      <c r="I104" s="1">
+        <v>8.4347120843471207E-2</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0.17460317460317459</v>
+      </c>
+      <c r="K104" s="1">
+        <v>1.1005355404089581</v>
+      </c>
+      <c r="L104" s="1">
+        <v>9.5796916246156452E-2</v>
+      </c>
+      <c r="M104" s="1">
+        <v>8.1234667754191464E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" s="1">
+        <v>7</v>
+      </c>
+      <c r="C105" s="1">
+        <v>40</v>
+      </c>
+      <c r="D105" s="1">
+        <v>47</v>
+      </c>
+      <c r="E105" s="1">
+        <v>3.1972789115646258E-2</v>
+      </c>
+      <c r="F105" s="1">
+        <v>7</v>
+      </c>
+      <c r="G105" s="1">
+        <v>40</v>
+      </c>
+      <c r="H105" s="1">
+        <v>2.953586497890295E-2</v>
+      </c>
+      <c r="I105" s="1">
+        <v>3.2441200324412001E-2</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0.14893617021276601</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0.91044303797468362</v>
+      </c>
+      <c r="L105" s="1">
+        <v>-9.3823943029409801E-2</v>
+      </c>
+      <c r="M105" s="1">
+        <v>2.7259001793837151E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" s="1">
+        <v>6</v>
+      </c>
+      <c r="C106" s="1">
+        <v>36</v>
+      </c>
+      <c r="D106" s="1">
+        <v>42</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>6</v>
+      </c>
+      <c r="G106" s="1">
+        <v>36</v>
+      </c>
+      <c r="H106" s="1">
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="I106" s="1">
+        <v>2.9197080291970798E-2</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0.86708860759493678</v>
+      </c>
+      <c r="L106" s="1">
+        <v>-0.14261410719884179</v>
+      </c>
+      <c r="M106" s="1">
+        <v>5.5343181209935842E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B107" s="1">
         <v>237</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C107" s="1">
         <v>1233</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D107" s="1">
         <v>1470</v>
       </c>
-      <c r="E103" s="1">
-        <v>1</v>
-      </c>
-      <c r="F103" s="1">
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1">
         <v>237</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G107" s="1">
         <v>1233</v>
       </c>
-      <c r="H103" s="1">
-        <v>1</v>
-      </c>
-      <c r="I103" s="1">
-        <v>1</v>
-      </c>
-      <c r="J103" s="1">
+      <c r="H107" s="1">
+        <v>1</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1</v>
+      </c>
+      <c r="J107" s="1">
         <v>0.16122448979591841</v>
       </c>
-      <c r="M103" s="3">
+      <c r="M107" s="3">
         <v>2.986470414253747E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+    <row r="110" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B110" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
-    </row>
-    <row r="107" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="6" t="s">
+      <c r="C110" s="6"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+    </row>
+    <row r="111" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D111" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E111" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="F111" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G107" s="6" t="s">
+      <c r="G111" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H107" s="6" t="s">
+      <c r="H111" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I107" s="6" t="s">
+      <c r="I111" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J107" s="6" t="s">
+      <c r="J111" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K107" s="6" t="s">
+      <c r="K111" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L107" s="6" t="s">
+      <c r="L111" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M107" s="6" t="s">
+      <c r="M111" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>64</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B112" s="1">
         <v>180</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C112" s="1">
         <v>774</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D112" s="1">
         <v>954</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E112" s="1">
         <v>0.6489795918367347</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F112" s="1">
         <v>180</v>
       </c>
-      <c r="G108" s="1">
+      <c r="G112" s="1">
         <v>774</v>
       </c>
-      <c r="H108" s="1">
+      <c r="H112" s="1">
         <v>0.759493670886076</v>
       </c>
-      <c r="I108" s="1">
+      <c r="I112" s="1">
         <v>0.62773722627737227</v>
       </c>
-      <c r="J108" s="1">
+      <c r="J112" s="1">
         <v>0.18867924528301891</v>
       </c>
-      <c r="K108" s="1">
+      <c r="K112" s="1">
         <v>1.209891080365028</v>
       </c>
-      <c r="L108" s="1">
+      <c r="L112" s="1">
         <v>0.1905303393296964</v>
       </c>
-      <c r="M108" s="1">
+      <c r="M112" s="1">
         <v>2.5103600100170671E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>65</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B113" s="1">
         <v>55</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C113" s="1">
         <v>410</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D113" s="1">
         <v>465</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E113" s="1">
         <v>0.31632653061224492</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F113" s="1">
         <v>55</v>
       </c>
-      <c r="G109" s="1">
+      <c r="G113" s="1">
         <v>410</v>
       </c>
-      <c r="H109" s="1">
+      <c r="H113" s="1">
         <v>0.2320675105485232</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I113" s="1">
         <v>0.33252230332522298</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J113" s="1">
         <v>0.1182795698924731</v>
       </c>
-      <c r="K109" s="1">
+      <c r="K113" s="1">
         <v>0.69790058660080267</v>
       </c>
-      <c r="L109" s="1">
+      <c r="L113" s="1">
         <v>-0.35967861243666949</v>
       </c>
-      <c r="M109" s="1">
+      <c r="M113" s="1">
         <v>3.6131440478536572E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>66</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B114" s="1">
         <v>2</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C114" s="1">
         <v>49</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D114" s="1">
         <v>51</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E114" s="1">
         <v>3.4693877551020408E-2</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F114" s="1">
         <v>2</v>
       </c>
-      <c r="G110" s="1">
+      <c r="G114" s="1">
         <v>49</v>
       </c>
-      <c r="H110" s="1">
+      <c r="H114" s="1">
         <v>8.4388185654008432E-3</v>
       </c>
-      <c r="I110" s="1">
+      <c r="I114" s="1">
         <v>3.9740470397404713E-2</v>
       </c>
-      <c r="J110" s="1">
+      <c r="J114" s="1">
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="K110" s="1">
+      <c r="K114" s="1">
         <v>0.21234823043141299</v>
       </c>
-      <c r="L110" s="1">
+      <c r="L114" s="1">
         <v>-1.5495277555214679</v>
       </c>
-      <c r="M110" s="1">
+      <c r="M114" s="1">
         <v>4.8502778307359412E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B115" s="1">
         <v>237</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C115" s="1">
         <v>1233</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D115" s="1">
         <v>1470</v>
       </c>
-      <c r="E111" s="1">
-        <v>1</v>
-      </c>
-      <c r="F111" s="1">
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1">
         <v>237</v>
       </c>
-      <c r="G111" s="1">
+      <c r="G115" s="1">
         <v>1233</v>
       </c>
-      <c r="H111" s="1">
-        <v>1</v>
-      </c>
-      <c r="I111" s="1">
-        <v>1</v>
-      </c>
-      <c r="J111" s="1">
+      <c r="H115" s="1">
+        <v>1</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1">
         <v>0.16122448979591841</v>
       </c>
-      <c r="K111" s="1">
-        <v>1</v>
-      </c>
-      <c r="M111" s="3">
+      <c r="K115" s="1">
+        <v>1</v>
+      </c>
+      <c r="M115" s="3">
         <v>0.10973781888606669</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B110:C110"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B100:C100"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="3" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>